--- a/results/I3_N5_M3_T30_C100_DepCentral_s0_P2_res.xlsx
+++ b/results/I3_N5_M3_T30_C100_DepCentral_s0_P2_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1848.662446836022</v>
+        <v>1818.718352253817</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.009999990463256836</v>
+        <v>0.003000020980834961</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>22.0347856895565</v>
+        <v>17.05768396753712</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.850618573960585</v>
+        <v>7.908099007898997</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.188279720421058</v>
+        <v>3.568767294178761</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1580.660000000005</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>246.63</v>
+        <v>528</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -628,67 +628,12 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" t="n">
-        <v>3</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>3</v>
-      </c>
-      <c r="B8" t="n">
-        <v>5</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>5</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>5</v>
-      </c>
-      <c r="B10" t="n">
-        <v>2</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>5</v>
-      </c>
-      <c r="B11" t="n">
-        <v>4</v>
-      </c>
-      <c r="C11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -733,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -744,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -755,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -777,7 +722,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -788,7 +733,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -799,7 +744,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -810,7 +755,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -857,7 +802,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -868,7 +813,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -879,7 +824,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -890,7 +835,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -923,7 +868,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -934,7 +879,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -984,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6.113652099978697</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -992,7 +937,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>23.8863479000213</v>
+        <v>15.97824889212231</v>
       </c>
     </row>
     <row r="5">
@@ -1000,7 +945,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20</v>
+        <v>4.798343757406283</v>
       </c>
     </row>
     <row r="6">
@@ -1008,7 +953,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20</v>
+        <v>2.420950226667209</v>
       </c>
     </row>
     <row r="7">
@@ -1016,7 +961,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>22.94108823397055</v>
+        <v>27.07084158034161</v>
       </c>
     </row>
     <row r="8">
@@ -1024,7 +969,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>22.42095022666721</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -1032,7 +977,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>23.77834566152794</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
@@ -1040,7 +985,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>27.72327375283629</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1054,7 +999,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1086,10 +1031,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1100,10 +1045,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1114,10 +1059,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1128,10 +1073,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1142,10 +1087,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
@@ -1156,13 +1101,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -1170,13 +1115,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" t="n">
         <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -1184,13 +1129,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -1198,13 +1143,13 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B10" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -1212,13 +1157,13 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -1229,10 +1174,10 @@
         <v>5</v>
       </c>
       <c r="B12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -1243,12 +1188,54 @@
         <v>5</v>
       </c>
       <c r="B13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" t="n">
+        <v>6</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5</v>
+      </c>
+      <c r="B15" t="n">
+        <v>6</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" t="n">
+        <v>6</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1351,7 +1338,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>52.86000000000065</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8">
@@ -1362,7 +1349,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>48.83000000000065</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9">
@@ -1373,7 +1360,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>46.6</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10">
@@ -1384,7 +1371,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>51.34000000000066</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11">
@@ -1395,7 +1382,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>49.96000000000065</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12">
@@ -1406,7 +1393,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>164.2600000000014</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13">
@@ -1417,7 +1404,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8950000000015</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14">
@@ -1428,7 +1415,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>163.3150000000014</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15">
@@ -1439,7 +1426,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>176.55</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16">
@@ -1450,7 +1437,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>172.5900000000015</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17">
@@ -1461,7 +1448,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>99.54499999999936</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18">
@@ -1472,7 +1459,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>92.51499999999935</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19">
@@ -1483,7 +1470,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>100.0699999999993</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20">
@@ -1494,7 +1481,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>90.09499999999935</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21">
@@ -1505,7 +1492,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>102.7799999999993</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22">
@@ -1516,7 +1503,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>108.515</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23">
@@ -1527,7 +1514,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>96.92</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24">
@@ -1538,7 +1525,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>106.645</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25">
@@ -1549,7 +1536,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>103.745</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26">
@@ -1560,7 +1547,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>100.49</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27">
@@ -1571,7 +1558,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>176.7649999999992</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28">
@@ -1582,7 +1569,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>179.8599999999991</v>
+        <v>227</v>
       </c>
     </row>
     <row r="29">
@@ -1593,7 +1580,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>191.55</v>
+        <v>236</v>
       </c>
     </row>
     <row r="30">
@@ -1604,7 +1591,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>181.9549999999991</v>
+        <v>233</v>
       </c>
     </row>
     <row r="31">
@@ -1615,7 +1602,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>193.1949999999991</v>
+        <v>219</v>
       </c>
     </row>
     <row r="32">
@@ -1626,7 +1613,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>108.515</v>
+        <v>224</v>
       </c>
     </row>
     <row r="33">
@@ -1637,7 +1624,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>96.92</v>
+        <v>227</v>
       </c>
     </row>
     <row r="34">
@@ -1648,7 +1635,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>106.645</v>
+        <v>236</v>
       </c>
     </row>
     <row r="35">
@@ -1659,7 +1646,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>103.745</v>
+        <v>233</v>
       </c>
     </row>
     <row r="36">
@@ -1670,7 +1657,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>100.49</v>
+        <v>219</v>
       </c>
     </row>
     <row r="37">
@@ -1681,7 +1668,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>176.7649999999992</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1692,7 +1679,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>179.8599999999991</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1703,7 +1690,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>191.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1714,7 +1701,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>181.9549999999991</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1725,7 +1712,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>193.1949999999991</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1736,7 +1723,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>164.2600000000014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1747,7 +1734,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8950000000015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1758,7 +1745,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>163.3150000000014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1769,7 +1756,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>176.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1780,7 +1767,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>172.5900000000015</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1827,7 +1814,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>8.515000000000001</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3">
@@ -1838,7 +1825,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4">
@@ -1849,7 +1836,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>6.645000000000003</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5">
@@ -1860,7 +1847,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>3.744999999999997</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6">
@@ -1871,7 +1858,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.490000000000002</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7">
@@ -1882,7 +1869,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>76.76499999999916</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1893,7 +1880,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>79.85999999999913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1904,7 +1891,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>91.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1915,7 +1902,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>81.95499999999913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1926,7 +1913,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>93.19499999999911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1937,7 +1924,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>64.26000000000144</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1948,7 +1935,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>70.89500000000146</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1959,7 +1946,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>63.31500000000145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1970,7 +1957,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>76.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1981,7 +1968,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>72.59000000000145</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2028,7 +2015,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>15.315</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2039,7 +2026,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>27.3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -2050,7 +2037,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>29.24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -2061,7 +2048,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>25.57</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -2072,7 +2059,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>25.89</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -2083,7 +2070,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -2094,7 +2081,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -2105,7 +2092,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -2116,7 +2103,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -2127,7 +2114,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -2138,7 +2125,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
@@ -2149,7 +2136,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
@@ -2160,7 +2147,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15">
@@ -2171,7 +2158,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
@@ -2182,7 +2169,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
@@ -2193,7 +2180,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18">
@@ -2204,7 +2191,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
@@ -2215,7 +2202,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20">
@@ -2226,7 +2213,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21">
@@ -2237,7 +2224,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22">
@@ -2306,7 +2293,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2333,7 +2320,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2344,7 +2331,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2355,7 +2342,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2366,7 +2353,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2377,7 +2364,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -2388,10 +2375,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -2399,10 +2386,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -2410,10 +2397,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -2421,10 +2408,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -2432,10 +2419,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -2443,10 +2430,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -2457,7 +2444,7 @@
         <v>5</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -2468,7 +2455,7 @@
         <v>5</v>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -2479,7 +2466,7 @@
         <v>5</v>
       </c>
       <c r="B15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -2490,20 +2477,9 @@
         <v>5</v>
       </c>
       <c r="B16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>5</v>
-      </c>
-      <c r="B17" t="n">
-        <v>5</v>
-      </c>
-      <c r="C17" t="n">
         <v>1</v>
       </c>
     </row>
